--- a/data/CM-AM AVENIR ACTIONS FRANCE.xlsx
+++ b/data/CM-AM AVENIR ACTIONS FRANCE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Historique Cours</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Date d'export</t>
   </si>
   <si>
-    <t>29/04/2025</t>
+    <t>31/10/2025</t>
   </si>
   <si>
     <t>Valeur :</t>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
   </si>
   <si>
     <t>31/03/2025</t>
@@ -889,8 +907,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D199" headerRowCount="1">
-  <autoFilter ref="A7:D199"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D205" headerRowCount="1">
+  <autoFilter ref="A7:D205"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Date de cotation"/>
     <tableColumn id="2" name="Dernier cours en EUR"/>
@@ -903,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="80"/>
   </sheetViews>
@@ -1020,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="14">
-        <v>31.1391</v>
+        <v>31.822</v>
       </c>
       <c r="C8" s="15">
-        <v>-2.83</v>
+        <v>2.08</v>
       </c>
       <c r="D8" s="16">
-        <v>1787831</v>
+        <v>1880093</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1036,13 +1054,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="14">
-        <v>32.0467</v>
+        <v>31.1747</v>
       </c>
       <c r="C9" s="15">
-        <v>1.45</v>
+        <v>-1.94</v>
       </c>
       <c r="D9" s="16">
-        <v>1781034</v>
+        <v>1899842</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1052,13 +1070,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="14">
-        <v>31.589</v>
+        <v>31.7929</v>
       </c>
       <c r="C10" s="15">
-        <v>7.74</v>
+        <v>0.74</v>
       </c>
       <c r="D10" s="16">
-        <v>1795264</v>
+        <v>1895409</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1068,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="14">
-        <v>29.3208</v>
+        <v>31.5594</v>
       </c>
       <c r="C11" s="15">
-        <v>1.95</v>
+        <v>-1.11</v>
       </c>
       <c r="D11" s="16">
-        <v>1812931</v>
+        <v>1887049</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1084,13 +1102,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="14">
-        <v>28.7613</v>
+        <v>31.9149</v>
       </c>
       <c r="C12" s="15">
-        <v>-1.53</v>
+        <v>3.82</v>
       </c>
       <c r="D12" s="16">
-        <v>1837168</v>
+        <v>1868057</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1100,13 +1118,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="14">
-        <v>29.2094</v>
+        <v>30.7409</v>
       </c>
       <c r="C13" s="15">
-        <v>-3.79</v>
+        <v>-1.28</v>
       </c>
       <c r="D13" s="16">
-        <v>1854897</v>
+        <v>1811378</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1116,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="14">
-        <v>30.3597</v>
+        <v>31.1391</v>
       </c>
       <c r="C14" s="15">
-        <v>-0.46</v>
+        <v>-2.83</v>
       </c>
       <c r="D14" s="16">
-        <v>1866664</v>
+        <v>1787831</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1132,13 +1150,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="14">
-        <v>30.4995</v>
+        <v>32.0467</v>
       </c>
       <c r="C15" s="15">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="D15" s="16">
-        <v>1849732</v>
+        <v>1781034</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1148,13 +1166,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="14">
-        <v>30.177</v>
+        <v>31.589</v>
       </c>
       <c r="C16" s="15">
-        <v>1.19</v>
+        <v>7.74</v>
       </c>
       <c r="D16" s="16">
-        <v>1812757</v>
+        <v>1795264</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1164,13 +1182,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="14">
-        <v>29.8232</v>
+        <v>29.3208</v>
       </c>
       <c r="C17" s="15">
-        <v>-6.56</v>
+        <v>1.95</v>
       </c>
       <c r="D17" s="16">
-        <v>1823657</v>
+        <v>1812931</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1180,13 +1198,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="14">
-        <v>31.9162</v>
+        <v>28.7613</v>
       </c>
       <c r="C18" s="15">
-        <v>2.25</v>
+        <v>-1.53</v>
       </c>
       <c r="D18" s="16">
-        <v>1804431</v>
+        <v>1837168</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1196,13 +1214,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="14">
-        <v>31.2153</v>
+        <v>29.2094</v>
       </c>
       <c r="C19" s="15">
-        <v>-2.57</v>
+        <v>-3.79</v>
       </c>
       <c r="D19" s="16">
-        <v>1718427</v>
+        <v>1854897</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1212,13 +1230,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="14">
-        <v>32.0383</v>
+        <v>30.3597</v>
       </c>
       <c r="C20" s="15">
-        <v>3.72</v>
+        <v>-0.46</v>
       </c>
       <c r="D20" s="16">
-        <v>1715025</v>
+        <v>1866664</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1228,13 +1246,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="14">
-        <v>30.8889</v>
+        <v>30.4995</v>
       </c>
       <c r="C21" s="15">
-        <v>2.71</v>
+        <v>1.07</v>
       </c>
       <c r="D21" s="16">
-        <v>1694204</v>
+        <v>1849732</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1244,13 +1262,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="14">
-        <v>30.0734</v>
+        <v>30.177</v>
       </c>
       <c r="C22" s="15">
-        <v>2.44</v>
+        <v>1.19</v>
       </c>
       <c r="D22" s="16">
-        <v>1695516</v>
+        <v>1812757</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1260,13 +1278,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="14">
-        <v>29.3584</v>
+        <v>29.8232</v>
       </c>
       <c r="C23" s="15">
-        <v>3.18</v>
+        <v>-6.56</v>
       </c>
       <c r="D23" s="16">
-        <v>1677345</v>
+        <v>1823657</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1276,13 +1294,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="14">
-        <v>28.4531</v>
+        <v>31.9162</v>
       </c>
       <c r="C24" s="15">
-        <v>6.56</v>
+        <v>2.25</v>
       </c>
       <c r="D24" s="16">
-        <v>1676134</v>
+        <v>1804431</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1292,13 +1310,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="14">
-        <v>26.7023</v>
+        <v>31.2153</v>
       </c>
       <c r="C25" s="15">
-        <v>-5.03</v>
+        <v>-2.57</v>
       </c>
       <c r="D25" s="16">
-        <v>1681792</v>
+        <v>1718427</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -1308,13 +1326,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="14">
-        <v>28.1177</v>
+        <v>32.0383</v>
       </c>
       <c r="C26" s="15">
-        <v>-2.77</v>
+        <v>3.72</v>
       </c>
       <c r="D26" s="16">
-        <v>1680995</v>
+        <v>1715025</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -1324,13 +1342,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="14">
-        <v>28.9179</v>
+        <v>30.8889</v>
       </c>
       <c r="C27" s="15">
-        <v>-2.63</v>
+        <v>2.71</v>
       </c>
       <c r="D27" s="16">
-        <v>1651309</v>
+        <v>1694204</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -1340,13 +1358,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="14">
-        <v>29.6987</v>
+        <v>30.0734</v>
       </c>
       <c r="C28" s="15">
-        <v>1.63</v>
+        <v>2.44</v>
       </c>
       <c r="D28" s="16">
-        <v>1732322</v>
+        <v>1695516</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -1356,13 +1374,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="14">
-        <v>29.2216</v>
+        <v>29.3584</v>
       </c>
       <c r="C29" s="15">
-        <v>3.94</v>
+        <v>3.18</v>
       </c>
       <c r="D29" s="16">
-        <v>1722587</v>
+        <v>1677345</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -1372,13 +1390,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="14">
-        <v>28.1138</v>
+        <v>28.4531</v>
       </c>
       <c r="C30" s="15">
-        <v>-3.78</v>
+        <v>6.56</v>
       </c>
       <c r="D30" s="16">
-        <v>1598562</v>
+        <v>1676134</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -1388,13 +1406,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="14">
-        <v>29.217</v>
+        <v>26.7023</v>
       </c>
       <c r="C31" s="15">
-        <v>2.41</v>
+        <v>-5.03</v>
       </c>
       <c r="D31" s="16">
-        <v>1454774</v>
+        <v>1681792</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -1404,13 +1422,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="14">
-        <v>28.5297</v>
+        <v>28.1177</v>
       </c>
       <c r="C32" s="15">
-        <v>-0.92</v>
+        <v>-2.77</v>
       </c>
       <c r="D32" s="16">
-        <v>1416314</v>
+        <v>1680995</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -1420,13 +1438,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="14">
-        <v>28.7945</v>
+        <v>28.9179</v>
       </c>
       <c r="C33" s="15">
-        <v>2.3</v>
+        <v>-2.63</v>
       </c>
       <c r="D33" s="16">
-        <v>1410593</v>
+        <v>1651309</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -1436,13 +1454,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="14">
-        <v>28.1481</v>
+        <v>29.6987</v>
       </c>
       <c r="C34" s="15">
-        <v>9.55</v>
+        <v>1.63</v>
       </c>
       <c r="D34" s="16">
-        <v>1387780</v>
+        <v>1732322</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -1452,13 +1470,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="14">
-        <v>25.6943</v>
+        <v>29.2216</v>
       </c>
       <c r="C35" s="15">
-        <v>-3.92</v>
+        <v>3.94</v>
       </c>
       <c r="D35" s="16">
-        <v>1375352</v>
+        <v>1722587</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -1468,13 +1486,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="14">
-        <v>26.7429</v>
+        <v>28.1138</v>
       </c>
       <c r="C36" s="15">
-        <v>7.21</v>
+        <v>-3.78</v>
       </c>
       <c r="D36" s="16">
-        <v>1366161</v>
+        <v>1598562</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -1484,13 +1502,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="14">
-        <v>24.9445</v>
+        <v>29.217</v>
       </c>
       <c r="C37" s="15">
-        <v>7.66</v>
+        <v>2.41</v>
       </c>
       <c r="D37" s="16">
-        <v>1351135</v>
+        <v>1454774</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -1500,13 +1518,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="14">
-        <v>23.1704</v>
+        <v>28.5297</v>
       </c>
       <c r="C38" s="15">
-        <v>-6.41</v>
+        <v>-0.92</v>
       </c>
       <c r="D38" s="16">
-        <v>1375553</v>
+        <v>1416314</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -1516,13 +1534,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="14">
-        <v>24.7583</v>
+        <v>28.7945</v>
       </c>
       <c r="C39" s="15">
-        <v>-4.99</v>
+        <v>2.3</v>
       </c>
       <c r="D39" s="16">
-        <v>1384429</v>
+        <v>1410593</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -1532,13 +1550,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="14">
-        <v>26.0581</v>
+        <v>28.1481</v>
       </c>
       <c r="C40" s="15">
-        <v>8.95</v>
+        <v>9.55</v>
       </c>
       <c r="D40" s="16">
-        <v>1381585</v>
+        <v>1387780</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -1548,13 +1566,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="14">
-        <v>23.9169</v>
+        <v>25.6943</v>
       </c>
       <c r="C41" s="15">
-        <v>-8.57</v>
+        <v>-3.92</v>
       </c>
       <c r="D41" s="16">
-        <v>1371863</v>
+        <v>1375352</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -1564,13 +1582,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="14">
-        <v>26.1594</v>
+        <v>26.7429</v>
       </c>
       <c r="C42" s="15">
-        <v>-0.12</v>
+        <v>7.21</v>
       </c>
       <c r="D42" s="16">
-        <v>1287343</v>
+        <v>1366161</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -1580,13 +1598,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="14">
-        <v>26.1909</v>
+        <v>24.9445</v>
       </c>
       <c r="C43" s="15">
-        <v>-1.72</v>
+        <v>7.66</v>
       </c>
       <c r="D43" s="16">
-        <v>1170403</v>
+        <v>1351135</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -1596,13 +1614,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="14">
-        <v>26.6484</v>
+        <v>23.1704</v>
       </c>
       <c r="C44" s="15">
-        <v>0.76</v>
+        <v>-6.41</v>
       </c>
       <c r="D44" s="16">
-        <v>1143247</v>
+        <v>1375553</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -1612,13 +1630,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="14">
-        <v>26.4469</v>
+        <v>24.7583</v>
       </c>
       <c r="C45" s="15">
-        <v>-5.76</v>
+        <v>-4.99</v>
       </c>
       <c r="D45" s="16">
-        <v>1137079</v>
+        <v>1384429</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1628,13 +1646,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="14">
-        <v>28.0635</v>
+        <v>26.0581</v>
       </c>
       <c r="C46" s="15">
-        <v>-3.24</v>
+        <v>8.95</v>
       </c>
       <c r="D46" s="16">
-        <v>1141735</v>
+        <v>1381585</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -1644,13 +1662,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="14">
-        <v>29.0019</v>
+        <v>23.9169</v>
       </c>
       <c r="C47" s="15">
-        <v>5.74</v>
+        <v>-8.57</v>
       </c>
       <c r="D47" s="16">
-        <v>1140149</v>
+        <v>1371863</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -1660,13 +1678,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="14">
-        <v>27.4275</v>
+        <v>26.1594</v>
       </c>
       <c r="C48" s="15">
-        <v>-2.25</v>
+        <v>-0.12</v>
       </c>
       <c r="D48" s="16">
-        <v>1132208</v>
+        <v>1287343</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -1676,13 +1694,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="14">
-        <v>28.0597</v>
+        <v>26.1909</v>
       </c>
       <c r="C49" s="15">
-        <v>3.46</v>
+        <v>-1.72</v>
       </c>
       <c r="D49" s="16">
-        <v>1147749</v>
+        <v>1170403</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -1692,13 +1710,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="14">
-        <v>27.1204</v>
+        <v>26.6484</v>
       </c>
       <c r="C50" s="15">
-        <v>-2.46</v>
+        <v>0.76</v>
       </c>
       <c r="D50" s="16">
-        <v>1152596</v>
+        <v>1143247</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -1708,13 +1726,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="14">
-        <v>27.803</v>
+        <v>26.4469</v>
       </c>
       <c r="C51" s="15">
-        <v>1.38</v>
+        <v>-5.76</v>
       </c>
       <c r="D51" s="16">
-        <v>1154198</v>
+        <v>1137079</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -1724,13 +1742,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="14">
-        <v>27.4252</v>
+        <v>28.0635</v>
       </c>
       <c r="C52" s="15">
-        <v>2.14</v>
+        <v>-3.24</v>
       </c>
       <c r="D52" s="16">
-        <v>1150734</v>
+        <v>1141735</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -1740,13 +1758,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="14">
-        <v>26.8514</v>
+        <v>29.0019</v>
       </c>
       <c r="C53" s="15">
-        <v>0.99</v>
+        <v>5.74</v>
       </c>
       <c r="D53" s="16">
-        <v>1153800</v>
+        <v>1140149</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -1756,13 +1774,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="14">
-        <v>26.5879</v>
+        <v>27.4275</v>
       </c>
       <c r="C54" s="15">
-        <v>3.19</v>
+        <v>-2.25</v>
       </c>
       <c r="D54" s="16">
-        <v>1101557</v>
+        <v>1132208</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -1772,13 +1790,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="14">
-        <v>25.7667</v>
+        <v>28.0597</v>
       </c>
       <c r="C55" s="15">
-        <v>3.09</v>
+        <v>3.46</v>
       </c>
       <c r="D55" s="16">
-        <v>1014341</v>
+        <v>1147749</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -1788,13 +1806,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="14">
-        <v>24.9942</v>
+        <v>27.1204</v>
       </c>
       <c r="C56" s="15">
-        <v>6.62</v>
+        <v>-2.46</v>
       </c>
       <c r="D56" s="16">
-        <v>1008521</v>
+        <v>1152596</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -1804,13 +1822,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="14">
-        <v>23.4425</v>
+        <v>27.803</v>
       </c>
       <c r="C57" s="15">
-        <v>4.78</v>
+        <v>1.38</v>
       </c>
       <c r="D57" s="16">
-        <v>996086</v>
+        <v>1154198</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -1820,13 +1838,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="14">
-        <v>22.3735</v>
+        <v>27.4252</v>
       </c>
       <c r="C58" s="15">
-        <v>-2.49</v>
+        <v>2.14</v>
       </c>
       <c r="D58" s="16">
-        <v>936620</v>
+        <v>1150734</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -1836,13 +1854,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="14">
-        <v>22.9443</v>
+        <v>26.8514</v>
       </c>
       <c r="C59" s="15">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
       <c r="D59" s="16">
-        <v>943879</v>
+        <v>1153800</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -1852,13 +1870,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="14">
-        <v>22.8391</v>
+        <v>26.5879</v>
       </c>
       <c r="C60" s="15">
-        <v>19.72</v>
+        <v>3.19</v>
       </c>
       <c r="D60" s="16">
-        <v>941803</v>
+        <v>1101557</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -1868,13 +1886,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="14">
-        <v>19.0775</v>
+        <v>25.7667</v>
       </c>
       <c r="C61" s="15">
-        <v>-5.12</v>
+        <v>3.09</v>
       </c>
       <c r="D61" s="16">
-        <v>955223</v>
+        <v>1014341</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -1884,13 +1902,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="14">
-        <v>20.1067</v>
+        <v>24.9942</v>
       </c>
       <c r="C62" s="15">
-        <v>-2.83</v>
+        <v>6.62</v>
       </c>
       <c r="D62" s="16">
-        <v>964204</v>
+        <v>1008521</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -1900,13 +1918,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="14">
-        <v>20.6927</v>
+        <v>23.4425</v>
       </c>
       <c r="C63" s="15">
-        <v>3.04</v>
+        <v>4.78</v>
       </c>
       <c r="D63" s="16">
-        <v>966711</v>
+        <v>996086</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -1916,13 +1934,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="14">
-        <v>20.0818</v>
+        <v>22.3735</v>
       </c>
       <c r="C64" s="15">
-        <v>-2.08</v>
+        <v>-2.49</v>
       </c>
       <c r="D64" s="16">
-        <v>972275</v>
+        <v>936620</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -1932,13 +1950,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="14">
-        <v>20.5081</v>
+        <v>22.9443</v>
       </c>
       <c r="C65" s="15">
-        <v>5.22</v>
+        <v>0.46</v>
       </c>
       <c r="D65" s="16">
-        <v>969359</v>
+        <v>943879</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -1948,13 +1966,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="14">
-        <v>19.4916</v>
+        <v>22.8391</v>
       </c>
       <c r="C66" s="15">
-        <v>3.37</v>
+        <v>19.72</v>
       </c>
       <c r="D66" s="16">
-        <v>931780</v>
+        <v>941803</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -1964,13 +1982,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="14">
-        <v>18.8562</v>
+        <v>19.0775</v>
       </c>
       <c r="C67" s="15">
-        <v>4.26</v>
+        <v>-5.12</v>
       </c>
       <c r="D67" s="16">
-        <v>867387</v>
+        <v>955223</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -1980,13 +1998,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="14">
-        <v>18.0866</v>
+        <v>20.1067</v>
       </c>
       <c r="C68" s="15">
-        <v>-17.9</v>
+        <v>-2.83</v>
       </c>
       <c r="D68" s="16">
-        <v>841914</v>
+        <v>964204</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -1996,13 +2014,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="14">
-        <v>22.0299</v>
+        <v>20.6927</v>
       </c>
       <c r="C69" s="15">
-        <v>-8.09</v>
+        <v>3.04</v>
       </c>
       <c r="D69" s="16">
-        <v>857939</v>
+        <v>966711</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -2012,13 +2030,13 @@
         <v>75</v>
       </c>
       <c r="B70" s="14">
-        <v>23.9688</v>
+        <v>20.0818</v>
       </c>
       <c r="C70" s="15">
-        <v>-3.01</v>
+        <v>-2.08</v>
       </c>
       <c r="D70" s="16">
-        <v>858061</v>
+        <v>972275</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -2028,13 +2046,13 @@
         <v>76</v>
       </c>
       <c r="B71" s="14">
-        <v>24.7119</v>
+        <v>20.5081</v>
       </c>
       <c r="C71" s="15">
-        <v>1.35</v>
+        <v>5.22</v>
       </c>
       <c r="D71" s="16">
-        <v>855605</v>
+        <v>969359</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -2044,13 +2062,13 @@
         <v>77</v>
       </c>
       <c r="B72" s="14">
-        <v>24.3826</v>
+        <v>19.4916</v>
       </c>
       <c r="C72" s="15">
-        <v>2.71</v>
+        <v>3.37</v>
       </c>
       <c r="D72" s="16">
-        <v>846151</v>
+        <v>931780</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -2060,13 +2078,13 @@
         <v>78</v>
       </c>
       <c r="B73" s="14">
-        <v>23.7392</v>
+        <v>18.8562</v>
       </c>
       <c r="C73" s="15">
-        <v>0.72</v>
+        <v>4.26</v>
       </c>
       <c r="D73" s="16">
-        <v>841907</v>
+        <v>867387</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -2076,13 +2094,13 @@
         <v>79</v>
       </c>
       <c r="B74" s="14">
-        <v>23.5698</v>
+        <v>18.0866</v>
       </c>
       <c r="C74" s="15">
-        <v>3.73</v>
+        <v>-17.9</v>
       </c>
       <c r="D74" s="16">
-        <v>845465</v>
+        <v>841914</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -2092,13 +2110,13 @@
         <v>80</v>
       </c>
       <c r="B75" s="14">
-        <v>22.7222</v>
+        <v>22.0299</v>
       </c>
       <c r="C75" s="15">
-        <v>-1.07</v>
+        <v>-8.09</v>
       </c>
       <c r="D75" s="16">
-        <v>851371</v>
+        <v>857939</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -2108,13 +2126,13 @@
         <v>81</v>
       </c>
       <c r="B76" s="14">
-        <v>22.9686</v>
+        <v>23.9688</v>
       </c>
       <c r="C76" s="15">
-        <v>-0.43</v>
+        <v>-3.01</v>
       </c>
       <c r="D76" s="16">
-        <v>854459</v>
+        <v>858061</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -2124,13 +2142,13 @@
         <v>82</v>
       </c>
       <c r="B77" s="14">
-        <v>23.0684</v>
+        <v>24.7119</v>
       </c>
       <c r="C77" s="15">
-        <v>6.75</v>
+        <v>1.35</v>
       </c>
       <c r="D77" s="16">
-        <v>847628</v>
+        <v>855605</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -2140,13 +2158,13 @@
         <v>83</v>
       </c>
       <c r="B78" s="14">
-        <v>21.6108</v>
+        <v>24.3826</v>
       </c>
       <c r="C78" s="15">
-        <v>-5.23</v>
+        <v>2.71</v>
       </c>
       <c r="D78" s="16">
-        <v>803441</v>
+        <v>846151</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -2156,13 +2174,13 @@
         <v>84</v>
       </c>
       <c r="B79" s="14">
-        <v>22.8026</v>
+        <v>23.7392</v>
       </c>
       <c r="C79" s="15">
-        <v>4.74</v>
+        <v>0.72</v>
       </c>
       <c r="D79" s="16">
-        <v>718935</v>
+        <v>841907</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -2172,13 +2190,13 @@
         <v>85</v>
       </c>
       <c r="B80" s="14">
-        <v>21.7712</v>
+        <v>23.5698</v>
       </c>
       <c r="C80" s="15">
-        <v>2.2</v>
+        <v>3.73</v>
       </c>
       <c r="D80" s="16">
-        <v>688109</v>
+        <v>845465</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -2188,13 +2206,13 @@
         <v>86</v>
       </c>
       <c r="B81" s="14">
-        <v>21.303</v>
+        <v>22.7222</v>
       </c>
       <c r="C81" s="15">
-        <v>5.38</v>
+        <v>-1.07</v>
       </c>
       <c r="D81" s="16">
-        <v>681469</v>
+        <v>851371</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -2204,13 +2222,13 @@
         <v>87</v>
       </c>
       <c r="B82" s="14">
-        <v>20.215</v>
+        <v>22.9686</v>
       </c>
       <c r="C82" s="15">
-        <v>5.2</v>
+        <v>-0.43</v>
       </c>
       <c r="D82" s="16">
-        <v>667101</v>
+        <v>854459</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -2220,13 +2238,13 @@
         <v>88</v>
       </c>
       <c r="B83" s="14">
-        <v>19.2165</v>
+        <v>23.0684</v>
       </c>
       <c r="C83" s="15">
-        <v>-5.94</v>
+        <v>6.75</v>
       </c>
       <c r="D83" s="16">
-        <v>667383</v>
+        <v>847628</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -2236,13 +2254,13 @@
         <v>89</v>
       </c>
       <c r="B84" s="14">
-        <v>20.4298</v>
+        <v>21.6108</v>
       </c>
       <c r="C84" s="15">
-        <v>-1.76</v>
+        <v>-5.23</v>
       </c>
       <c r="D84" s="16">
-        <v>669111</v>
+        <v>803441</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -2252,13 +2270,13 @@
         <v>90</v>
       </c>
       <c r="B85" s="14">
-        <v>20.7954</v>
+        <v>22.8026</v>
       </c>
       <c r="C85" s="15">
-        <v>-6.97</v>
+        <v>4.74</v>
       </c>
       <c r="D85" s="16">
-        <v>665867</v>
+        <v>718935</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -2268,13 +2286,13 @@
         <v>91</v>
       </c>
       <c r="B86" s="14">
-        <v>22.3534</v>
+        <v>21.7712</v>
       </c>
       <c r="C86" s="15">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="D86" s="16">
-        <v>665362</v>
+        <v>688109</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -2284,13 +2302,13 @@
         <v>92</v>
       </c>
       <c r="B87" s="14">
-        <v>22.006</v>
+        <v>21.303</v>
       </c>
       <c r="C87" s="15">
-        <v>-2.1</v>
+        <v>5.38</v>
       </c>
       <c r="D87" s="16">
-        <v>664905</v>
+        <v>681469</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -2300,13 +2318,13 @@
         <v>93</v>
       </c>
       <c r="B88" s="14">
-        <v>22.4772</v>
+        <v>20.215</v>
       </c>
       <c r="C88" s="15">
-        <v>3.04</v>
+        <v>5.2</v>
       </c>
       <c r="D88" s="16">
-        <v>666304</v>
+        <v>667101</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -2316,13 +2334,13 @@
         <v>94</v>
       </c>
       <c r="B89" s="14">
-        <v>21.8133</v>
+        <v>19.2165</v>
       </c>
       <c r="C89" s="15">
-        <v>-0.8</v>
+        <v>-5.94</v>
       </c>
       <c r="D89" s="16">
-        <v>649857</v>
+        <v>667383</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -2332,13 +2350,13 @@
         <v>95</v>
       </c>
       <c r="B90" s="14">
-        <v>21.9894</v>
+        <v>20.4298</v>
       </c>
       <c r="C90" s="15">
-        <v>-0.4</v>
+        <v>-1.76</v>
       </c>
       <c r="D90" s="16">
-        <v>644418</v>
+        <v>669111</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -2348,13 +2366,13 @@
         <v>96</v>
       </c>
       <c r="B91" s="14">
-        <v>22.0767</v>
+        <v>20.7954</v>
       </c>
       <c r="C91" s="15">
-        <v>6.38</v>
+        <v>-6.97</v>
       </c>
       <c r="D91" s="16">
-        <v>604788</v>
+        <v>665867</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
@@ -2364,13 +2382,13 @@
         <v>97</v>
       </c>
       <c r="B92" s="14">
-        <v>20.752</v>
+        <v>22.3534</v>
       </c>
       <c r="C92" s="15">
-        <v>-2.44</v>
+        <v>1.58</v>
       </c>
       <c r="D92" s="16">
-        <v>593084</v>
+        <v>665362</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -2380,13 +2398,13 @@
         <v>98</v>
       </c>
       <c r="B93" s="14">
-        <v>21.2709</v>
+        <v>22.006</v>
       </c>
       <c r="C93" s="15">
-        <v>-2.82</v>
+        <v>-2.1</v>
       </c>
       <c r="D93" s="16">
-        <v>583239</v>
+        <v>664905</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -2396,13 +2414,13 @@
         <v>99</v>
       </c>
       <c r="B94" s="14">
-        <v>21.889</v>
+        <v>22.4772</v>
       </c>
       <c r="C94" s="15">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="D94" s="16">
-        <v>575763</v>
+        <v>666304</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -2412,13 +2430,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="14">
-        <v>21.2419</v>
+        <v>21.8133</v>
       </c>
       <c r="C95" s="15">
-        <v>-1.14</v>
+        <v>-0.8</v>
       </c>
       <c r="D95" s="16">
-        <v>556044</v>
+        <v>649857</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -2428,13 +2446,13 @@
         <v>101</v>
       </c>
       <c r="B96" s="14">
-        <v>21.4864</v>
+        <v>21.9894</v>
       </c>
       <c r="C96" s="15">
-        <v>-2.49</v>
+        <v>-0.4</v>
       </c>
       <c r="D96" s="16">
-        <v>543886</v>
+        <v>644418</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -2444,13 +2462,13 @@
         <v>102</v>
       </c>
       <c r="B97" s="14">
-        <v>22.0356</v>
+        <v>22.0767</v>
       </c>
       <c r="C97" s="15">
-        <v>2.6</v>
+        <v>6.38</v>
       </c>
       <c r="D97" s="16">
-        <v>536700</v>
+        <v>604788</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -2460,13 +2478,13 @@
         <v>103</v>
       </c>
       <c r="B98" s="14">
-        <v>21.478</v>
+        <v>20.752</v>
       </c>
       <c r="C98" s="15">
-        <v>4.69</v>
+        <v>-2.44</v>
       </c>
       <c r="D98" s="16">
-        <v>525076</v>
+        <v>593084</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -2476,13 +2494,13 @@
         <v>104</v>
       </c>
       <c r="B99" s="14">
-        <v>20.5167</v>
+        <v>21.2709</v>
       </c>
       <c r="C99" s="15">
-        <v>-0.41</v>
+        <v>-2.82</v>
       </c>
       <c r="D99" s="16">
-        <v>517170</v>
+        <v>583239</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -2492,13 +2510,13 @@
         <v>105</v>
       </c>
       <c r="B100" s="14">
-        <v>20.6018</v>
+        <v>21.889</v>
       </c>
       <c r="C100" s="15">
-        <v>-0.41</v>
+        <v>3.05</v>
       </c>
       <c r="D100" s="16">
-        <v>516385</v>
+        <v>575763</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -2508,13 +2526,13 @@
         <v>106</v>
       </c>
       <c r="B101" s="14">
-        <v>20.6865</v>
+        <v>21.2419</v>
       </c>
       <c r="C101" s="15">
-        <v>-2.72</v>
+        <v>-1.14</v>
       </c>
       <c r="D101" s="16">
-        <v>515324</v>
+        <v>556044</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -2524,13 +2542,13 @@
         <v>107</v>
       </c>
       <c r="B102" s="14">
-        <v>21.2641</v>
+        <v>21.4864</v>
       </c>
       <c r="C102" s="15">
-        <v>1.87</v>
+        <v>-2.49</v>
       </c>
       <c r="D102" s="16">
-        <v>494739</v>
+        <v>543886</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -2540,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B103" s="14">
-        <v>20.8729</v>
+        <v>22.0356</v>
       </c>
       <c r="C103" s="15">
-        <v>3.28</v>
+        <v>2.6</v>
       </c>
       <c r="D103" s="16">
-        <v>449488</v>
+        <v>536700</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -2556,13 +2574,13 @@
         <v>109</v>
       </c>
       <c r="B104" s="14">
-        <v>20.2105</v>
+        <v>21.478</v>
       </c>
       <c r="C104" s="15">
-        <v>5.39</v>
+        <v>4.69</v>
       </c>
       <c r="D104" s="16">
-        <v>439668</v>
+        <v>525076</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -2572,13 +2590,13 @@
         <v>110</v>
       </c>
       <c r="B105" s="14">
-        <v>19.1772</v>
+        <v>20.5167</v>
       </c>
       <c r="C105" s="15">
-        <v>2.19</v>
+        <v>-0.41</v>
       </c>
       <c r="D105" s="16">
-        <v>431165</v>
+        <v>517170</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -2588,13 +2606,13 @@
         <v>111</v>
       </c>
       <c r="B106" s="14">
-        <v>18.7654</v>
+        <v>20.6018</v>
       </c>
       <c r="C106" s="15">
-        <v>-2.24</v>
+        <v>-0.41</v>
       </c>
       <c r="D106" s="16">
-        <v>422201</v>
+        <v>516385</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -2604,13 +2622,13 @@
         <v>112</v>
       </c>
       <c r="B107" s="14">
-        <v>19.1954</v>
+        <v>20.6865</v>
       </c>
       <c r="C107" s="15">
-        <v>6.55</v>
+        <v>-2.72</v>
       </c>
       <c r="D107" s="16">
-        <v>425382</v>
+        <v>515324</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -2620,13 +2638,13 @@
         <v>113</v>
       </c>
       <c r="B108" s="14">
-        <v>18.0154</v>
+        <v>21.2641</v>
       </c>
       <c r="C108" s="15">
-        <v>0.93</v>
+        <v>1.87</v>
       </c>
       <c r="D108" s="16">
-        <v>421039</v>
+        <v>494739</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -2636,13 +2654,13 @@
         <v>114</v>
       </c>
       <c r="B109" s="14">
-        <v>17.849</v>
+        <v>20.8729</v>
       </c>
       <c r="C109" s="15">
-        <v>1.31</v>
+        <v>3.28</v>
       </c>
       <c r="D109" s="16">
-        <v>425552</v>
+        <v>449488</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -2652,13 +2670,13 @@
         <v>115</v>
       </c>
       <c r="B110" s="14">
-        <v>17.6184</v>
+        <v>20.2105</v>
       </c>
       <c r="C110" s="15">
-        <v>-0.34</v>
+        <v>5.39</v>
       </c>
       <c r="D110" s="16">
-        <v>429235</v>
+        <v>439668</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -2668,13 +2686,13 @@
         <v>116</v>
       </c>
       <c r="B111" s="14">
-        <v>17.6784</v>
+        <v>19.1772</v>
       </c>
       <c r="C111" s="15">
-        <v>-0.02</v>
+        <v>2.19</v>
       </c>
       <c r="D111" s="16">
-        <v>431025</v>
+        <v>431165</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -2684,13 +2702,13 @@
         <v>117</v>
       </c>
       <c r="B112" s="14">
-        <v>17.6823</v>
+        <v>18.7654</v>
       </c>
       <c r="C112" s="15">
-        <v>4.21</v>
+        <v>-2.24</v>
       </c>
       <c r="D112" s="16">
-        <v>427073</v>
+        <v>422201</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -2700,13 +2718,13 @@
         <v>118</v>
       </c>
       <c r="B113" s="14">
-        <v>16.9676</v>
+        <v>19.1954</v>
       </c>
       <c r="C113" s="15">
-        <v>-5.59</v>
+        <v>6.55</v>
       </c>
       <c r="D113" s="16">
-        <v>423611</v>
+        <v>425382</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -2716,13 +2734,13 @@
         <v>119</v>
       </c>
       <c r="B114" s="14">
-        <v>17.9726</v>
+        <v>18.0154</v>
       </c>
       <c r="C114" s="15">
-        <v>3.29</v>
+        <v>0.93</v>
       </c>
       <c r="D114" s="16">
-        <v>406589</v>
+        <v>421039</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -2732,13 +2750,13 @@
         <v>120</v>
       </c>
       <c r="B115" s="14">
-        <v>17.401</v>
+        <v>17.849</v>
       </c>
       <c r="C115" s="15">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="D115" s="16">
-        <v>383668</v>
+        <v>425552</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -2748,13 +2766,13 @@
         <v>121</v>
       </c>
       <c r="B116" s="14">
-        <v>17.1786</v>
+        <v>17.6184</v>
       </c>
       <c r="C116" s="15">
-        <v>0.93</v>
+        <v>-0.34</v>
       </c>
       <c r="D116" s="16">
-        <v>383404</v>
+        <v>429235</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -2764,13 +2782,13 @@
         <v>122</v>
       </c>
       <c r="B117" s="14">
-        <v>17.0211</v>
+        <v>17.6784</v>
       </c>
       <c r="C117" s="15">
-        <v>-1.23</v>
+        <v>-0.02</v>
       </c>
       <c r="D117" s="16">
-        <v>369347</v>
+        <v>431025</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -2780,13 +2798,13 @@
         <v>123</v>
       </c>
       <c r="B118" s="14">
-        <v>17.2327</v>
+        <v>17.6823</v>
       </c>
       <c r="C118" s="15">
-        <v>-4.57</v>
+        <v>4.21</v>
       </c>
       <c r="D118" s="16">
-        <v>365521</v>
+        <v>427073</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
@@ -2796,13 +2814,13 @@
         <v>124</v>
       </c>
       <c r="B119" s="14">
-        <v>18.0587</v>
+        <v>16.9676</v>
       </c>
       <c r="C119" s="15">
-        <v>-5.97</v>
+        <v>-5.59</v>
       </c>
       <c r="D119" s="16">
-        <v>351951</v>
+        <v>423611</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -2812,13 +2830,13 @@
         <v>125</v>
       </c>
       <c r="B120" s="14">
-        <v>19.2059</v>
+        <v>17.9726</v>
       </c>
       <c r="C120" s="15">
-        <v>1.7</v>
+        <v>3.29</v>
       </c>
       <c r="D120" s="16">
-        <v>329812</v>
+        <v>406589</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
@@ -2828,13 +2846,13 @@
         <v>126</v>
       </c>
       <c r="B121" s="14">
-        <v>18.8858</v>
+        <v>17.401</v>
       </c>
       <c r="C121" s="15">
-        <v>9.54</v>
+        <v>1.3</v>
       </c>
       <c r="D121" s="16">
-        <v>332262</v>
+        <v>383668</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -2844,13 +2862,13 @@
         <v>127</v>
       </c>
       <c r="B122" s="14">
-        <v>17.2404</v>
+        <v>17.1786</v>
       </c>
       <c r="C122" s="15">
-        <v>-4.1</v>
+        <v>0.93</v>
       </c>
       <c r="D122" s="16">
-        <v>334394</v>
+        <v>383404</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -2860,13 +2878,13 @@
         <v>128</v>
       </c>
       <c r="B123" s="14">
-        <v>17.9771</v>
+        <v>17.0211</v>
       </c>
       <c r="C123" s="15">
-        <v>-7.71</v>
+        <v>-1.23</v>
       </c>
       <c r="D123" s="16">
-        <v>334775</v>
+        <v>369347</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -2876,13 +2894,13 @@
         <v>129</v>
       </c>
       <c r="B124" s="14">
-        <v>19.4794</v>
+        <v>17.2327</v>
       </c>
       <c r="C124" s="15">
-        <v>5.85</v>
+        <v>-4.57</v>
       </c>
       <c r="D124" s="16">
-        <v>331859</v>
+        <v>365521</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
@@ -2892,13 +2910,13 @@
         <v>130</v>
       </c>
       <c r="B125" s="14">
-        <v>18.4037</v>
+        <v>18.0587</v>
       </c>
       <c r="C125" s="15">
-        <v>-3.92</v>
+        <v>-5.97</v>
       </c>
       <c r="D125" s="16">
-        <v>331398</v>
+        <v>351951</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -2908,13 +2926,13 @@
         <v>131</v>
       </c>
       <c r="B126" s="14">
-        <v>19.1537</v>
+        <v>19.2059</v>
       </c>
       <c r="C126" s="15">
-        <v>0.67</v>
+        <v>1.7</v>
       </c>
       <c r="D126" s="16">
-        <v>324977</v>
+        <v>329812</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -2924,13 +2942,13 @@
         <v>132</v>
       </c>
       <c r="B127" s="14">
-        <v>19.0263</v>
+        <v>18.8858</v>
       </c>
       <c r="C127" s="15">
-        <v>0.89</v>
+        <v>9.54</v>
       </c>
       <c r="D127" s="16">
-        <v>317273</v>
+        <v>332262</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -2940,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B128" s="14">
-        <v>18.8585</v>
+        <v>17.2404</v>
       </c>
       <c r="C128" s="15">
-        <v>1.95</v>
+        <v>-4.1</v>
       </c>
       <c r="D128" s="16">
-        <v>315938</v>
+        <v>334394</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -2956,13 +2974,13 @@
         <v>134</v>
       </c>
       <c r="B129" s="14">
-        <v>18.4986</v>
+        <v>17.9771</v>
       </c>
       <c r="C129" s="15">
-        <v>7.39</v>
+        <v>-7.71</v>
       </c>
       <c r="D129" s="16">
-        <v>321090</v>
+        <v>334775</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -2972,13 +2990,13 @@
         <v>135</v>
       </c>
       <c r="B130" s="14">
-        <v>17.2265</v>
+        <v>19.4794</v>
       </c>
       <c r="C130" s="15">
-        <v>7.47</v>
+        <v>5.85</v>
       </c>
       <c r="D130" s="16">
-        <v>313313</v>
+        <v>331859</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
@@ -2988,13 +3006,13 @@
         <v>136</v>
       </c>
       <c r="B131" s="14">
-        <v>16.0299</v>
+        <v>18.4037</v>
       </c>
       <c r="C131" s="15">
-        <v>-2.26</v>
+        <v>-3.92</v>
       </c>
       <c r="D131" s="16">
-        <v>307702</v>
+        <v>331398</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
@@ -3004,13 +3022,13 @@
         <v>137</v>
       </c>
       <c r="B132" s="14">
-        <v>16.4006</v>
+        <v>19.1537</v>
       </c>
       <c r="C132" s="15">
-        <v>4.09</v>
+        <v>0.67</v>
       </c>
       <c r="D132" s="16">
-        <v>314807</v>
+        <v>324977</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
@@ -3020,13 +3038,13 @@
         <v>138</v>
       </c>
       <c r="B133" s="14">
-        <v>15.7564</v>
+        <v>19.0263</v>
       </c>
       <c r="C133" s="15">
-        <v>-3.91</v>
+        <v>0.89</v>
       </c>
       <c r="D133" s="16">
-        <v>313983</v>
+        <v>317273</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -3036,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B134" s="14">
-        <v>16.3969</v>
+        <v>18.8585</v>
       </c>
       <c r="C134" s="15">
-        <v>0.58</v>
+        <v>1.95</v>
       </c>
       <c r="D134" s="16">
-        <v>317840</v>
+        <v>315938</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -3052,13 +3070,13 @@
         <v>140</v>
       </c>
       <c r="B135" s="14">
-        <v>16.3023</v>
+        <v>18.4986</v>
       </c>
       <c r="C135" s="15">
-        <v>1.99</v>
+        <v>7.39</v>
       </c>
       <c r="D135" s="16">
-        <v>319776</v>
+        <v>321090</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -3068,13 +3086,13 @@
         <v>141</v>
       </c>
       <c r="B136" s="14">
-        <v>15.9839</v>
+        <v>17.2265</v>
       </c>
       <c r="C136" s="15">
-        <v>-3.62</v>
+        <v>7.47</v>
       </c>
       <c r="D136" s="16">
-        <v>326712</v>
+        <v>313313</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -3084,13 +3102,13 @@
         <v>142</v>
       </c>
       <c r="B137" s="14">
-        <v>16.585</v>
+        <v>16.0299</v>
       </c>
       <c r="C137" s="15">
-        <v>-1.81</v>
+        <v>-2.26</v>
       </c>
       <c r="D137" s="16">
-        <v>326835</v>
+        <v>307702</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -3100,13 +3118,13 @@
         <v>143</v>
       </c>
       <c r="B138" s="14">
-        <v>16.89</v>
+        <v>16.4006</v>
       </c>
       <c r="C138" s="15">
-        <v>2.12</v>
+        <v>4.09</v>
       </c>
       <c r="D138" s="16">
-        <v>316759</v>
+        <v>314807</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -3116,13 +3134,13 @@
         <v>144</v>
       </c>
       <c r="B139" s="14">
-        <v>16.5388</v>
+        <v>15.7564</v>
       </c>
       <c r="C139" s="15">
-        <v>2</v>
+        <v>-3.91</v>
       </c>
       <c r="D139" s="16">
-        <v>311960</v>
+        <v>313983</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -3132,13 +3150,13 @@
         <v>145</v>
       </c>
       <c r="B140" s="14">
-        <v>16.2147</v>
+        <v>16.3969</v>
       </c>
       <c r="C140" s="15">
-        <v>0.02</v>
+        <v>0.58</v>
       </c>
       <c r="D140" s="16">
-        <v>299481</v>
+        <v>317840</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -3148,13 +3166,13 @@
         <v>146</v>
       </c>
       <c r="B141" s="14">
-        <v>16.212</v>
+        <v>16.3023</v>
       </c>
       <c r="C141" s="15">
-        <v>5.71</v>
+        <v>1.99</v>
       </c>
       <c r="D141" s="16">
-        <v>299583</v>
+        <v>319776</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -3164,13 +3182,13 @@
         <v>147</v>
       </c>
       <c r="B142" s="14">
-        <v>15.336</v>
+        <v>15.9839</v>
       </c>
       <c r="C142" s="15">
-        <v>-2.61</v>
+        <v>-3.62</v>
       </c>
       <c r="D142" s="16">
-        <v>295466</v>
+        <v>326712</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
@@ -3180,13 +3198,13 @@
         <v>148</v>
       </c>
       <c r="B143" s="14">
-        <v>15.7463</v>
+        <v>16.585</v>
       </c>
       <c r="C143" s="15">
-        <v>0.38</v>
+        <v>-1.81</v>
       </c>
       <c r="D143" s="16">
-        <v>296547</v>
+        <v>326835</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
@@ -3196,13 +3214,13 @@
         <v>149</v>
       </c>
       <c r="B144" s="14">
-        <v>15.6861</v>
+        <v>16.89</v>
       </c>
       <c r="C144" s="15">
-        <v>0.54</v>
+        <v>2.12</v>
       </c>
       <c r="D144" s="16">
-        <v>292185</v>
+        <v>316759</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
@@ -3212,13 +3230,13 @@
         <v>150</v>
       </c>
       <c r="B145" s="14">
-        <v>15.6022</v>
+        <v>16.5388</v>
       </c>
       <c r="C145" s="15">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="D145" s="16">
-        <v>291815</v>
+        <v>311960</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
@@ -3228,13 +3246,13 @@
         <v>151</v>
       </c>
       <c r="B146" s="14">
-        <v>15.0304</v>
+        <v>16.2147</v>
       </c>
       <c r="C146" s="15">
-        <v>5.47</v>
+        <v>0.02</v>
       </c>
       <c r="D146" s="16">
-        <v>287293</v>
+        <v>299481</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
@@ -3244,13 +3262,13 @@
         <v>152</v>
       </c>
       <c r="B147" s="14">
-        <v>14.2508</v>
+        <v>16.212</v>
       </c>
       <c r="C147" s="15">
-        <v>-1.6</v>
+        <v>5.71</v>
       </c>
       <c r="D147" s="16">
-        <v>285409</v>
+        <v>299583</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
@@ -3260,13 +3278,13 @@
         <v>153</v>
       </c>
       <c r="B148" s="14">
-        <v>14.4826</v>
+        <v>15.336</v>
       </c>
       <c r="C148" s="15">
-        <v>6.81</v>
+        <v>-2.61</v>
       </c>
       <c r="D148" s="16">
-        <v>288332</v>
+        <v>295466</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
@@ -3276,13 +3294,13 @@
         <v>154</v>
       </c>
       <c r="B149" s="14">
-        <v>13.5591</v>
+        <v>15.7463</v>
       </c>
       <c r="C149" s="15">
-        <v>-4.69</v>
+        <v>0.38</v>
       </c>
       <c r="D149" s="16">
-        <v>294120</v>
+        <v>296547</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -3292,13 +3310,13 @@
         <v>155</v>
       </c>
       <c r="B150" s="14">
-        <v>14.2262</v>
+        <v>15.6861</v>
       </c>
       <c r="C150" s="15">
-        <v>4.31</v>
+        <v>0.54</v>
       </c>
       <c r="D150" s="16">
-        <v>277446</v>
+        <v>292185</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
@@ -3308,13 +3326,13 @@
         <v>156</v>
       </c>
       <c r="B151" s="14">
-        <v>13.6383</v>
+        <v>15.6022</v>
       </c>
       <c r="C151" s="15">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D151" s="16">
-        <v>273642</v>
+        <v>291815</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
@@ -3324,13 +3342,13 @@
         <v>157</v>
       </c>
       <c r="B152" s="14">
-        <v>13.2675</v>
+        <v>15.0304</v>
       </c>
       <c r="C152" s="15">
-        <v>-0.49</v>
+        <v>5.47</v>
       </c>
       <c r="D152" s="16">
-        <v>273311</v>
+        <v>287293</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
@@ -3340,13 +3358,13 @@
         <v>158</v>
       </c>
       <c r="B153" s="14">
-        <v>13.3332</v>
+        <v>14.2508</v>
       </c>
       <c r="C153" s="15">
-        <v>0.41</v>
+        <v>-1.6</v>
       </c>
       <c r="D153" s="16">
-        <v>269139</v>
+        <v>285409</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -3356,13 +3374,13 @@
         <v>159</v>
       </c>
       <c r="B154" s="14">
-        <v>13.2786</v>
+        <v>14.4826</v>
       </c>
       <c r="C154" s="15">
-        <v>2.66</v>
+        <v>6.81</v>
       </c>
       <c r="D154" s="16">
-        <v>263037</v>
+        <v>288332</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
@@ -3372,13 +3390,13 @@
         <v>160</v>
       </c>
       <c r="B155" s="14">
-        <v>12.9342</v>
+        <v>13.5591</v>
       </c>
       <c r="C155" s="15">
-        <v>2.04</v>
+        <v>-4.69</v>
       </c>
       <c r="D155" s="16">
-        <v>198754</v>
+        <v>294120</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
@@ -3388,13 +3406,13 @@
         <v>161</v>
       </c>
       <c r="B156" s="14">
-        <v>12.6757</v>
+        <v>14.2262</v>
       </c>
       <c r="C156" s="15">
-        <v>3.87</v>
+        <v>4.31</v>
       </c>
       <c r="D156" s="16">
-        <v>199980</v>
+        <v>277446</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
@@ -3404,13 +3422,13 @@
         <v>162</v>
       </c>
       <c r="B157" s="14">
-        <v>12.204</v>
+        <v>13.6383</v>
       </c>
       <c r="C157" s="15">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="D157" s="16">
-        <v>200970</v>
+        <v>273642</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
@@ -3420,13 +3438,13 @@
         <v>163</v>
       </c>
       <c r="B158" s="14">
-        <v>12.0241</v>
+        <v>13.2675</v>
       </c>
       <c r="C158" s="15">
-        <v>-1.24</v>
+        <v>-0.49</v>
       </c>
       <c r="D158" s="16">
-        <v>202101</v>
+        <v>273311</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
@@ -3436,13 +3454,13 @@
         <v>164</v>
       </c>
       <c r="B159" s="14">
-        <v>12.1748</v>
+        <v>13.3332</v>
       </c>
       <c r="C159" s="15">
-        <v>3.88</v>
+        <v>0.41</v>
       </c>
       <c r="D159" s="16">
-        <v>198314</v>
+        <v>269139</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
@@ -3452,13 +3470,13 @@
         <v>165</v>
       </c>
       <c r="B160" s="14">
-        <v>11.7197</v>
+        <v>13.2786</v>
       </c>
       <c r="C160" s="15">
         <v>2.66</v>
       </c>
       <c r="D160" s="16">
-        <v>200713</v>
+        <v>263037</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -3468,13 +3486,13 @@
         <v>166</v>
       </c>
       <c r="B161" s="14">
-        <v>11.416</v>
+        <v>12.9342</v>
       </c>
       <c r="C161" s="15">
-        <v>5.97</v>
+        <v>2.04</v>
       </c>
       <c r="D161" s="16">
-        <v>213425</v>
+        <v>198754</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
@@ -3484,13 +3502,13 @@
         <v>167</v>
       </c>
       <c r="B162" s="14">
-        <v>10.7726</v>
+        <v>12.6757</v>
       </c>
       <c r="C162" s="15">
-        <v>-4.57</v>
+        <v>3.87</v>
       </c>
       <c r="D162" s="16">
-        <v>210390</v>
+        <v>199980</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
@@ -3500,13 +3518,13 @@
         <v>168</v>
       </c>
       <c r="B163" s="14">
-        <v>11.2888</v>
+        <v>12.204</v>
       </c>
       <c r="C163" s="15">
-        <v>-4.75</v>
+        <v>1.5</v>
       </c>
       <c r="D163" s="16">
-        <v>206365</v>
+        <v>200970</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
@@ -3516,13 +3534,13 @@
         <v>169</v>
       </c>
       <c r="B164" s="14">
-        <v>11.852</v>
+        <v>12.0241</v>
       </c>
       <c r="C164" s="15">
-        <v>-0.58</v>
+        <v>-1.24</v>
       </c>
       <c r="D164" s="16">
-        <v>157507</v>
+        <v>202101</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
@@ -3532,13 +3550,13 @@
         <v>170</v>
       </c>
       <c r="B165" s="14">
-        <v>11.9208</v>
+        <v>12.1748</v>
       </c>
       <c r="C165" s="15">
-        <v>4.82</v>
+        <v>3.88</v>
       </c>
       <c r="D165" s="16">
-        <v>160205</v>
+        <v>198314</v>
       </c>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
@@ -3548,13 +3566,13 @@
         <v>171</v>
       </c>
       <c r="B166" s="14">
-        <v>11.3722</v>
+        <v>11.7197</v>
       </c>
       <c r="C166" s="15">
-        <v>3.79</v>
+        <v>2.66</v>
       </c>
       <c r="D166" s="16">
-        <v>150268</v>
+        <v>200713</v>
       </c>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
@@ -3564,13 +3582,13 @@
         <v>172</v>
       </c>
       <c r="B167" s="14">
-        <v>10.9572</v>
+        <v>11.416</v>
       </c>
       <c r="C167" s="15">
-        <v>0.42</v>
+        <v>5.97</v>
       </c>
       <c r="D167" s="16">
-        <v>153441</v>
+        <v>213425</v>
       </c>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
@@ -3580,13 +3598,13 @@
         <v>173</v>
       </c>
       <c r="B168" s="14">
-        <v>10.9114</v>
+        <v>10.7726</v>
       </c>
       <c r="C168" s="15">
-        <v>-2.66</v>
+        <v>-4.57</v>
       </c>
       <c r="D168" s="16">
-        <v>151631</v>
+        <v>210390</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
@@ -3596,13 +3614,13 @@
         <v>174</v>
       </c>
       <c r="B169" s="14">
-        <v>11.2095</v>
+        <v>11.2888</v>
       </c>
       <c r="C169" s="15">
-        <v>8.56</v>
+        <v>-4.75</v>
       </c>
       <c r="D169" s="16">
-        <v>142871</v>
+        <v>206365</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
@@ -3612,13 +3630,13 @@
         <v>175</v>
       </c>
       <c r="B170" s="14">
-        <v>10.3257</v>
+        <v>11.852</v>
       </c>
       <c r="C170" s="15">
-        <v>-8.54</v>
+        <v>-0.58</v>
       </c>
       <c r="D170" s="16">
-        <v>141565</v>
+        <v>157507</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
@@ -3628,13 +3646,13 @@
         <v>176</v>
       </c>
       <c r="B171" s="14">
-        <v>11.2894</v>
+        <v>11.9208</v>
       </c>
       <c r="C171" s="15">
-        <v>-10.9</v>
+        <v>4.82</v>
       </c>
       <c r="D171" s="16">
-        <v>141871</v>
+        <v>160205</v>
       </c>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
@@ -3644,13 +3662,13 @@
         <v>177</v>
       </c>
       <c r="B172" s="14">
-        <v>12.6702</v>
+        <v>11.3722</v>
       </c>
       <c r="C172" s="15">
-        <v>-6.98</v>
+        <v>3.79</v>
       </c>
       <c r="D172" s="16">
-        <v>139960</v>
+        <v>150268</v>
       </c>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
@@ -3660,13 +3678,13 @@
         <v>178</v>
       </c>
       <c r="B173" s="14">
-        <v>13.6202</v>
+        <v>10.9572</v>
       </c>
       <c r="C173" s="15">
-        <v>-0.31</v>
+        <v>0.42</v>
       </c>
       <c r="D173" s="16">
-        <v>139096</v>
+        <v>153441</v>
       </c>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
@@ -3676,13 +3694,13 @@
         <v>179</v>
       </c>
       <c r="B174" s="14">
-        <v>13.662</v>
+        <v>10.9114</v>
       </c>
       <c r="C174" s="15">
-        <v>-0.77</v>
+        <v>-2.66</v>
       </c>
       <c r="D174" s="16">
-        <v>135452</v>
+        <v>151631</v>
       </c>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
@@ -3692,13 +3710,13 @@
         <v>180</v>
       </c>
       <c r="B175" s="14">
-        <v>13.7682</v>
+        <v>11.2095</v>
       </c>
       <c r="C175" s="15">
-        <v>3.05</v>
+        <v>8.56</v>
       </c>
       <c r="D175" s="16">
-        <v>131534</v>
+        <v>142871</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
@@ -3708,13 +3726,13 @@
         <v>181</v>
       </c>
       <c r="B176" s="14">
-        <v>13.3604</v>
+        <v>10.3257</v>
       </c>
       <c r="C176" s="15">
-        <v>-3.01</v>
+        <v>-8.54</v>
       </c>
       <c r="D176" s="16">
-        <v>131823</v>
+        <v>141565</v>
       </c>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
@@ -3724,13 +3742,13 @@
         <v>182</v>
       </c>
       <c r="B177" s="14">
-        <v>13.7753</v>
+        <v>11.2894</v>
       </c>
       <c r="C177" s="15">
-        <v>2.41</v>
+        <v>-10.9</v>
       </c>
       <c r="D177" s="16">
-        <v>120727</v>
+        <v>141871</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
@@ -3740,13 +3758,13 @@
         <v>183</v>
       </c>
       <c r="B178" s="14">
-        <v>13.4515</v>
+        <v>12.6702</v>
       </c>
       <c r="C178" s="15">
-        <v>4.46</v>
+        <v>-6.98</v>
       </c>
       <c r="D178" s="16">
-        <v>130415</v>
+        <v>139960</v>
       </c>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
@@ -3756,13 +3774,13 @@
         <v>184</v>
       </c>
       <c r="B179" s="14">
-        <v>12.8772</v>
+        <v>13.6202</v>
       </c>
       <c r="C179" s="15">
-        <v>5.03</v>
+        <v>-0.31</v>
       </c>
       <c r="D179" s="16">
-        <v>126257</v>
+        <v>139096</v>
       </c>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
@@ -3772,13 +3790,13 @@
         <v>185</v>
       </c>
       <c r="B180" s="14">
-        <v>12.2604</v>
+        <v>13.662</v>
       </c>
       <c r="C180" s="15">
-        <v>-4.65</v>
+        <v>-0.77</v>
       </c>
       <c r="D180" s="16">
-        <v>130402</v>
+        <v>135452</v>
       </c>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
@@ -3788,13 +3806,13 @@
         <v>186</v>
       </c>
       <c r="B181" s="14">
-        <v>12.8587</v>
+        <v>13.7682</v>
       </c>
       <c r="C181" s="15">
-        <v>3.71</v>
+        <v>3.05</v>
       </c>
       <c r="D181" s="16">
-        <v>116472</v>
+        <v>131534</v>
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
@@ -3804,13 +3822,13 @@
         <v>187</v>
       </c>
       <c r="B182" s="14">
-        <v>12.3992</v>
+        <v>13.3604</v>
       </c>
       <c r="C182" s="15">
-        <v>6.58</v>
+        <v>-3.01</v>
       </c>
       <c r="D182" s="16">
-        <v>83474</v>
+        <v>131823</v>
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
@@ -3820,13 +3838,13 @@
         <v>188</v>
       </c>
       <c r="B183" s="14">
-        <v>11.6337</v>
+        <v>13.7753</v>
       </c>
       <c r="C183" s="15">
-        <v>-4.02</v>
+        <v>2.41</v>
       </c>
       <c r="D183" s="16">
-        <v>82889</v>
+        <v>120727</v>
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
@@ -3836,13 +3854,13 @@
         <v>189</v>
       </c>
       <c r="B184" s="14">
-        <v>12.1203</v>
+        <v>13.4515</v>
       </c>
       <c r="C184" s="15">
-        <v>5.98</v>
+        <v>4.46</v>
       </c>
       <c r="D184" s="16">
-        <v>82053</v>
+        <v>130415</v>
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
@@ -3852,13 +3870,13 @@
         <v>190</v>
       </c>
       <c r="B185" s="14">
-        <v>11.4361</v>
+        <v>12.8772</v>
       </c>
       <c r="C185" s="15">
-        <v>-1.45</v>
+        <v>5.03</v>
       </c>
       <c r="D185" s="16">
-        <v>81049</v>
+        <v>126257</v>
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -3868,13 +3886,13 @@
         <v>191</v>
       </c>
       <c r="B186" s="14">
-        <v>11.6048</v>
+        <v>12.2604</v>
       </c>
       <c r="C186" s="15">
-        <v>-5.46</v>
+        <v>-4.65</v>
       </c>
       <c r="D186" s="16">
-        <v>80218</v>
+        <v>130402</v>
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
@@ -3884,13 +3902,13 @@
         <v>192</v>
       </c>
       <c r="B187" s="14">
-        <v>12.2754</v>
+        <v>12.8587</v>
       </c>
       <c r="C187" s="15">
-        <v>-3.45</v>
+        <v>3.71</v>
       </c>
       <c r="D187" s="16">
-        <v>82348</v>
+        <v>116472</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
@@ -3900,13 +3918,13 @@
         <v>193</v>
       </c>
       <c r="B188" s="14">
-        <v>12.7141</v>
+        <v>12.3992</v>
       </c>
       <c r="C188" s="15">
-        <v>6.98</v>
+        <v>6.58</v>
       </c>
       <c r="D188" s="16">
-        <v>81655</v>
+        <v>83474</v>
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
@@ -3916,13 +3934,13 @@
         <v>194</v>
       </c>
       <c r="B189" s="14">
-        <v>11.8845</v>
+        <v>11.6337</v>
       </c>
       <c r="C189" s="15">
-        <v>-0.46</v>
+        <v>-4.02</v>
       </c>
       <c r="D189" s="16">
-        <v>75890</v>
+        <v>82889</v>
       </c>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -3932,13 +3950,13 @@
         <v>195</v>
       </c>
       <c r="B190" s="14">
-        <v>11.9391</v>
+        <v>12.1203</v>
       </c>
       <c r="C190" s="15">
-        <v>-4.96</v>
+        <v>5.98</v>
       </c>
       <c r="D190" s="16">
-        <v>76219</v>
+        <v>82053</v>
       </c>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
@@ -3948,13 +3966,13 @@
         <v>196</v>
       </c>
       <c r="B191" s="14">
-        <v>12.5625</v>
+        <v>11.4361</v>
       </c>
       <c r="C191" s="15">
-        <v>7.3</v>
+        <v>-1.45</v>
       </c>
       <c r="D191" s="16">
-        <v>76139</v>
+        <v>81049</v>
       </c>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
@@ -3964,13 +3982,13 @@
         <v>197</v>
       </c>
       <c r="B192" s="14">
-        <v>11.7076</v>
+        <v>11.6048</v>
       </c>
       <c r="C192" s="15">
-        <v>1.96</v>
+        <v>-5.46</v>
       </c>
       <c r="D192" s="16">
-        <v>61820</v>
+        <v>80218</v>
       </c>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
@@ -3980,13 +3998,13 @@
         <v>198</v>
       </c>
       <c r="B193" s="14">
-        <v>11.483</v>
+        <v>12.2754</v>
       </c>
       <c r="C193" s="15">
-        <v>-4.73</v>
+        <v>-3.45</v>
       </c>
       <c r="D193" s="16">
-        <v>59970</v>
+        <v>82348</v>
       </c>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
@@ -3996,13 +4014,13 @@
         <v>199</v>
       </c>
       <c r="B194" s="14">
-        <v>12.053</v>
+        <v>12.7141</v>
       </c>
       <c r="C194" s="15">
-        <v>3.59</v>
+        <v>6.98</v>
       </c>
       <c r="D194" s="16">
-        <v>2002</v>
+        <v>81655</v>
       </c>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
@@ -4012,13 +4030,13 @@
         <v>200</v>
       </c>
       <c r="B195" s="14">
-        <v>11.635</v>
+        <v>11.8845</v>
       </c>
       <c r="C195" s="15">
-        <v>5.73</v>
+        <v>-0.46</v>
       </c>
       <c r="D195" s="16">
-        <v>1947</v>
+        <v>75890</v>
       </c>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
@@ -4028,13 +4046,13 @@
         <v>201</v>
       </c>
       <c r="B196" s="14">
-        <v>11.004</v>
+        <v>11.9391</v>
       </c>
       <c r="C196" s="15">
-        <v>8.56</v>
+        <v>-4.96</v>
       </c>
       <c r="D196" s="16">
-        <v>1919</v>
+        <v>76219</v>
       </c>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
@@ -4044,13 +4062,13 @@
         <v>202</v>
       </c>
       <c r="B197" s="14">
-        <v>10.136</v>
+        <v>12.5625</v>
       </c>
       <c r="C197" s="15">
-        <v>-2.95</v>
+        <v>7.3</v>
       </c>
       <c r="D197" s="16">
-        <v>1911</v>
+        <v>76139</v>
       </c>
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
@@ -4060,13 +4078,13 @@
         <v>203</v>
       </c>
       <c r="B198" s="14">
-        <v>10.444</v>
+        <v>11.7076</v>
       </c>
       <c r="C198" s="15">
-        <v>4.44</v>
+        <v>1.96</v>
       </c>
       <c r="D198" s="16">
-        <v>232</v>
+        <v>61820</v>
       </c>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
@@ -4076,29 +4094,125 @@
         <v>204</v>
       </c>
       <c r="B199" s="14">
-        <v>10</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>205</v>
+        <v>11.483</v>
+      </c>
+      <c r="C199" s="15">
+        <v>-4.73</v>
       </c>
       <c r="D199" s="16">
-        <v>0</v>
+        <v>59970</v>
       </c>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
     </row>
-    <row r="200" ht="35" customHeight="1">
-      <c r="A200" s="18" t="s">
+    <row r="200" s="12" customFormat="1">
+      <c r="A200" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" s="14">
+        <v>12.053</v>
+      </c>
+      <c r="C200" s="15">
+        <v>3.59</v>
+      </c>
+      <c r="D200" s="16">
+        <v>2002</v>
+      </c>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+    </row>
+    <row r="201" s="12" customFormat="1">
+      <c r="A201" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B200" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>206</v>
+      <c r="B201" s="14">
+        <v>11.635</v>
+      </c>
+      <c r="C201" s="15">
+        <v>5.73</v>
+      </c>
+      <c r="D201" s="16">
+        <v>1947</v>
+      </c>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+    </row>
+    <row r="202" s="12" customFormat="1">
+      <c r="A202" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" s="14">
+        <v>11.004</v>
+      </c>
+      <c r="C202" s="15">
+        <v>8.56</v>
+      </c>
+      <c r="D202" s="16">
+        <v>1919</v>
+      </c>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+    </row>
+    <row r="203" s="12" customFormat="1">
+      <c r="A203" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" s="14">
+        <v>10.136</v>
+      </c>
+      <c r="C203" s="15">
+        <v>-2.95</v>
+      </c>
+      <c r="D203" s="16">
+        <v>1911</v>
+      </c>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+    </row>
+    <row r="204" s="12" customFormat="1">
+      <c r="A204" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" s="14">
+        <v>10.444</v>
+      </c>
+      <c r="C204" s="15">
+        <v>4.44</v>
+      </c>
+      <c r="D204" s="16">
+        <v>232</v>
+      </c>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+    </row>
+    <row r="205" s="12" customFormat="1">
+      <c r="A205" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" s="14">
+        <v>10</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D205" s="16">
+        <v>0</v>
+      </c>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+    </row>
+    <row r="206" ht="35" customHeight="1">
+      <c r="A206" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4114,18 +4228,18 @@
     <mergeCell ref="E4:E4"/>
     <mergeCell ref="E5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A206:D206"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" location="'Historique Cours'!A200" display="Se rendre en bas du document"/>
-    <hyperlink ref="B6" location="'Historique Cours'!A200" display="Se rendre en bas du document"/>
-    <hyperlink ref="C6" location="'Historique Cours'!A200" display="Se rendre en bas du document"/>
-    <hyperlink ref="D6" location="'Historique Cours'!A200" display="Se rendre en bas du document"/>
-    <hyperlink ref="E6" location="'Historique Cours'!A200" display="Se rendre en bas du document"/>
-    <hyperlink ref="A200" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="B200" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="C200" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="D200" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="A6" location="'Historique Cours'!A206" display="Se rendre en bas du document"/>
+    <hyperlink ref="B6" location="'Historique Cours'!A206" display="Se rendre en bas du document"/>
+    <hyperlink ref="C6" location="'Historique Cours'!A206" display="Se rendre en bas du document"/>
+    <hyperlink ref="D6" location="'Historique Cours'!A206" display="Se rendre en bas du document"/>
+    <hyperlink ref="E6" location="'Historique Cours'!A206" display="Se rendre en bas du document"/>
+    <hyperlink ref="A206" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="B206" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="C206" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="D206" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
